--- a/dataset/pre_school_report/sr_file/2022_10/30.xlsx
+++ b/dataset/pre_school_report/sr_file/2022_10/30.xlsx
@@ -14,78 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>발전현황-기간(일) 보고서 [INV]</t>
+    <t>date</t>
   </si>
   <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>Unnamed: 9</t>
-  </si>
-  <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
-  </si>
-  <si>
-    <t>Unnamed: 14</t>
-  </si>
-  <si>
-    <t>Unnamed: 15</t>
-  </si>
-  <si>
-    <t>Unnamed: 16</t>
-  </si>
-  <si>
-    <t>Unnamed: 17</t>
-  </si>
-  <si>
-    <t>2022-10-30 13</t>
-  </si>
-  <si>
-    <t>2022-10-30 14</t>
-  </si>
-  <si>
-    <t>2022-10-30 15</t>
-  </si>
-  <si>
-    <t>2022-10-30 16</t>
+    <t>SOL_RAD_LEVEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -138,11 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,290 +381,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>18</v>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>44864</v>
       </c>
       <c r="B2">
-        <v>495.71</v>
-      </c>
-      <c r="C2">
-        <v>13.56</v>
-      </c>
-      <c r="D2">
-        <v>6.76</v>
-      </c>
-      <c r="E2">
-        <v>400.55</v>
-      </c>
-      <c r="F2">
-        <v>396.34</v>
-      </c>
-      <c r="G2">
-        <v>399.83</v>
-      </c>
-      <c r="H2">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="I2">
-        <v>9.4</v>
-      </c>
-      <c r="J2">
-        <v>9.17</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>114790</v>
-      </c>
-      <c r="M2">
-        <v>59.94</v>
-      </c>
-      <c r="N2">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="O2">
-        <v>258.31</v>
-      </c>
-      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>44864.04166666666</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>44864.08333333334</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>44864.125</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>44864.16666666666</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>44864.20833333334</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>44864.25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>44864.29166666666</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>44864.33333333334</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>44864.375</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>44864.41666666666</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>44864.5</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>44864.54166666666</v>
+      </c>
+      <c r="B15">
         <v>249.01</v>
       </c>
-      <c r="Q2">
-        <v>23.6183333714803</v>
-      </c>
-      <c r="R2">
-        <v>19.57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>491.86</v>
-      </c>
-      <c r="C3">
-        <v>14.36</v>
-      </c>
-      <c r="D3">
-        <v>7.11</v>
-      </c>
-      <c r="E3">
-        <v>401.6</v>
-      </c>
-      <c r="F3">
-        <v>397.16</v>
-      </c>
-      <c r="G3">
-        <v>400.74</v>
-      </c>
-      <c r="H3">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="I3">
-        <v>9.84</v>
-      </c>
-      <c r="J3">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>114797</v>
-      </c>
-      <c r="M3">
-        <v>59.95</v>
-      </c>
-      <c r="N3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="O3">
-        <v>272.36</v>
-      </c>
-      <c r="P3">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>44864.58333333334</v>
+      </c>
+      <c r="B16">
         <v>242.98</v>
       </c>
-      <c r="Q3">
-        <v>25.0516669591268</v>
-      </c>
-      <c r="R3">
-        <v>20.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>491.53</v>
-      </c>
-      <c r="C4">
-        <v>5.82</v>
-      </c>
-      <c r="D4">
-        <v>2.91</v>
-      </c>
-      <c r="E4">
-        <v>398.65</v>
-      </c>
-      <c r="F4">
-        <v>393.85</v>
-      </c>
-      <c r="G4">
-        <v>397.62</v>
-      </c>
-      <c r="H4">
-        <v>3.4</v>
-      </c>
-      <c r="I4">
-        <v>3.98</v>
-      </c>
-      <c r="J4">
-        <v>3.91</v>
-      </c>
-      <c r="K4">
-        <v>2.3</v>
-      </c>
-      <c r="L4">
-        <v>114799.3</v>
-      </c>
-      <c r="M4">
-        <v>59.95</v>
-      </c>
-      <c r="N4">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="O4">
-        <v>113.79</v>
-      </c>
-      <c r="P4">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>44864.625</v>
+      </c>
+      <c r="B17">
         <v>109.64</v>
       </c>
-      <c r="Q4">
-        <v>18.7220339370986</v>
-      </c>
-      <c r="R4">
-        <v>17.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>472.36</v>
-      </c>
-      <c r="C5">
-        <v>1.62</v>
-      </c>
-      <c r="D5">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E5">
-        <v>398.17</v>
-      </c>
-      <c r="F5">
-        <v>393.26</v>
-      </c>
-      <c r="G5">
-        <v>397.34</v>
-      </c>
-      <c r="H5">
-        <v>1.05</v>
-      </c>
-      <c r="I5">
-        <v>1.25</v>
-      </c>
-      <c r="J5">
-        <v>1.49</v>
-      </c>
-      <c r="K5">
-        <v>0.91</v>
-      </c>
-      <c r="L5">
-        <v>114800.2</v>
-      </c>
-      <c r="M5">
-        <v>59.97</v>
-      </c>
-      <c r="N5">
-        <v>94.91</v>
-      </c>
-      <c r="O5">
-        <v>36.24</v>
-      </c>
-      <c r="P5">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>44864.66666666666</v>
+      </c>
+      <c r="B18">
         <v>36.3</v>
       </c>
-      <c r="Q5">
-        <v>16.136666615804</v>
-      </c>
-      <c r="R5">
-        <v>16.14</v>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>44864.70833333334</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>44864.75</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>44864.79166666666</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>44864.83333333334</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>44864.875</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>44864.91666666666</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>44864.95833333334</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
